--- a/data/trans_orig/P62AS2-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P62AS2-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F555AC6F-3ADC-47B0-ABAC-31039D5E0041}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{ED723086-9CAA-4FAB-AE34-3F103A45CB17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{A2D7CC69-FA96-4771-BD3F-A0B9AAA9ACDB}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{D914381D-9602-4768-9B75-937C5615C287}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -605,7 +605,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2ADEC7A-5F07-4F43-B8E5-722FA775F4A6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{030037D1-A3AC-4533-A21E-D7163C7C9251}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2045,7 +2045,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45B9F692-E41C-4848-A7D0-941570A0F10C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12A96AB1-AEEF-4C9A-8FBD-DBAADB01EE1A}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3485,7 +3485,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0F5B488-2703-48B4-8F32-2AB6DF51E9E2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7078CAC8-5720-490F-AB26-83045473389E}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/data/trans_orig/P62AS2-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P62AS2-Edad-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{ED723086-9CAA-4FAB-AE34-3F103A45CB17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{58CDE13E-7093-4192-A4C7-1E38E43942A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{D914381D-9602-4768-9B75-937C5615C287}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{BD08DBB0-37D5-443F-A993-5AE9F16CE039}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -109,19 +109,19 @@
     <t>42,75%</t>
   </si>
   <si>
-    <t>10,88%</t>
-  </si>
-  <si>
-    <t>77,28%</t>
+    <t>10,6%</t>
+  </si>
+  <si>
+    <t>75,14%</t>
   </si>
   <si>
     <t>57,25%</t>
   </si>
   <si>
-    <t>22,72%</t>
-  </si>
-  <si>
-    <t>89,12%</t>
+    <t>24,86%</t>
+  </si>
+  <si>
+    <t>89,4%</t>
   </si>
   <si>
     <t>100%</t>
@@ -136,13 +136,13 @@
     <t>5,73%</t>
   </si>
   <si>
-    <t>37,04%</t>
+    <t>23,68%</t>
   </si>
   <si>
     <t>94,27%</t>
   </si>
   <si>
-    <t>62,96%</t>
+    <t>76,32%</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -151,7 +151,7 @@
     <t>10,53%</t>
   </si>
   <si>
-    <t>Población según el tipo de pensión que recibe / respuesta 2 en 2015 (Tasa respuesta: 0,11%)</t>
+    <t>Población según el tipo de pensión que recibe / respuesta 2 en 2016 (Tasa respuesta: 0,11%)</t>
   </si>
   <si>
     <t>77,15%</t>
@@ -178,22 +178,22 @@
     <t>12,68%</t>
   </si>
   <si>
-    <t>58,34%</t>
+    <t>57,04%</t>
   </si>
   <si>
     <t>63,07%</t>
   </si>
   <si>
-    <t>19,51%</t>
-  </si>
-  <si>
-    <t>89,5%</t>
+    <t>19,84%</t>
+  </si>
+  <si>
+    <t>89,31%</t>
   </si>
   <si>
     <t>24,26%</t>
   </si>
   <si>
-    <t>66,47%</t>
+    <t>65,93%</t>
   </si>
 </sst>
 </file>
@@ -605,7 +605,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{030037D1-A3AC-4533-A21E-D7163C7C9251}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7EFD549E-E068-4D46-B958-2FF2B81BA37E}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2045,7 +2045,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12A96AB1-AEEF-4C9A-8FBD-DBAADB01EE1A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FB0C276-BD05-4E60-AEA4-A2655A804BBA}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3485,7 +3485,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7078CAC8-5720-490F-AB26-83045473389E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49A12444-B586-4CFE-A16E-E0F3C8555EAA}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
